--- a/Teme proiect SP 421F 422F.xlsx
+++ b/Teme proiect SP 421F 422F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaid\Desktop\proiect-SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{54E58444-2142-48C8-BB1C-E3B0BC026514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29037F80-6668-4068-80FA-F11C5A0FE2F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE50C9-3B16-4806-B72F-26D77C342AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="660" windowWidth="12084" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>n</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">    0.5085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.4247</t>
   </si>
   <si>
     <t xml:space="preserve">    0.5392</t>
@@ -223,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,15 +615,15 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -643,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -660,7 +657,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -677,7 +674,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -694,12 +691,12 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>11333</v>
+        <v>11.333</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -711,7 +708,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,7 +725,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -745,7 +742,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -762,7 +759,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -779,7 +776,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -796,7 +793,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -813,7 +810,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -830,7 +827,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -847,7 +844,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -864,7 +861,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -881,7 +878,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -898,7 +895,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -915,7 +912,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -932,7 +929,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -949,7 +946,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -966,7 +963,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -983,7 +980,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>10992</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1045,85 +1042,85 @@
         <v>10971</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
+      <c r="C26" s="1">
+        <v>0.42470000000000002</v>
       </c>
       <c r="D26" s="2">
         <v>10950</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="2">
         <v>10929</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="2">
         <v>10908</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>10888</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="2">
         <v>10868</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="2">
         <v>10849</v>
@@ -1136,6 +1133,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008459978F1FF3E7448E31C49797508F09" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3767b7a8be1b673edf3de04edca018bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="764139c6-1cdc-4685-8e58-52f4684d86ad" xmlns:ns3="33150f82-8caf-4a53-a205-ce52e890c05c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e187251ead7740054ff69e45d2f6b18" ns2:_="" ns3:_="">
     <xsd:import namespace="764139c6-1cdc-4685-8e58-52f4684d86ad"/>
@@ -1300,15 +1306,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1316,13 +1313,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B69A350-B74B-4354-A5F9-E7AC4978D225}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64514C07-5C06-42BA-8599-3A383CA4BEDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64514C07-5C06-42BA-8599-3A383CA4BEDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B69A350-B74B-4354-A5F9-E7AC4978D225}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="764139c6-1cdc-4685-8e58-52f4684d86ad"/>
+    <ds:schemaRef ds:uri="33150f82-8caf-4a53-a205-ce52e890c05c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AF5921-6088-4622-9ED5-08B399F81BD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65AF5921-6088-4622-9ED5-08B399F81BD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>